--- a/q1_dataFiles/01_Einfuehrung_Geburtstage.xlsx
+++ b/q1_dataFiles/01_Einfuehrung_Geburtstage.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Dropbox\Uni\Psych\Lehre\Quanti1\WiSe2021\quanti_eins_files\01_Einführung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\engelmann6\Dropbox\QuantiWebsite\q1_dataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EBD55C-F04A-4729-AF27-A9B023C47A42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Aufgabe" sheetId="3" r:id="rId1"/>
     <sheet name="Lösung" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1230,7 +1229,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1327,7 +1326,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1336,13 +1335,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1710,11 +1709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M371"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2085,7 @@
       <c r="F20">
         <v>66</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="19" t="s">
         <v>381</v>
       </c>
       <c r="J20" s="16"/>
@@ -2112,7 +2111,7 @@
       <c r="F21">
         <v>66</v>
       </c>
-      <c r="I21" s="15"/>
+      <c r="I21" s="19"/>
       <c r="J21" s="16"/>
       <c r="K21" s="2"/>
       <c r="M21" s="17"/>
@@ -2136,7 +2135,7 @@
       <c r="F22">
         <v>67</v>
       </c>
-      <c r="I22" s="15"/>
+      <c r="I22" s="19"/>
       <c r="J22" s="16"/>
       <c r="K22" s="2"/>
       <c r="M22" s="17"/>
@@ -2160,7 +2159,7 @@
       <c r="F23">
         <v>67</v>
       </c>
-      <c r="I23" s="18" t="s">
+      <c r="I23" s="20" t="s">
         <v>382</v>
       </c>
       <c r="J23" s="16"/>
@@ -2186,7 +2185,7 @@
       <c r="F24">
         <v>67</v>
       </c>
-      <c r="I24" s="18"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="16"/>
       <c r="K24" s="2"/>
       <c r="M24" s="17"/>
@@ -2210,7 +2209,7 @@
       <c r="F25">
         <v>67</v>
       </c>
-      <c r="I25" s="18"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="16"/>
       <c r="K25" s="2"/>
       <c r="M25" s="17"/>
@@ -2234,7 +2233,7 @@
       <c r="F26">
         <v>67</v>
       </c>
-      <c r="I26" s="19" t="s">
+      <c r="I26" s="15" t="s">
         <v>383</v>
       </c>
       <c r="J26" s="16"/>
@@ -2260,7 +2259,7 @@
       <c r="F27">
         <v>67</v>
       </c>
-      <c r="I27" s="19"/>
+      <c r="I27" s="15"/>
       <c r="J27" s="16"/>
       <c r="K27" s="2"/>
       <c r="M27" s="17"/>
@@ -2284,7 +2283,7 @@
       <c r="F28">
         <v>68</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="15"/>
       <c r="J28" s="16"/>
       <c r="K28" s="2"/>
       <c r="M28" s="17"/>
@@ -2308,7 +2307,7 @@
       <c r="F29">
         <v>68</v>
       </c>
-      <c r="I29" s="20" t="s">
+      <c r="I29" s="18" t="s">
         <v>384</v>
       </c>
       <c r="J29" s="16"/>
@@ -2334,7 +2333,7 @@
       <c r="F30">
         <v>68</v>
       </c>
-      <c r="I30" s="20"/>
+      <c r="I30" s="18"/>
       <c r="J30" s="16"/>
       <c r="K30" s="2"/>
       <c r="M30" s="17"/>
@@ -2358,7 +2357,7 @@
       <c r="F31">
         <v>68</v>
       </c>
-      <c r="I31" s="20"/>
+      <c r="I31" s="18"/>
       <c r="J31" s="16"/>
       <c r="K31" s="2"/>
       <c r="M31" s="17"/>
@@ -2384,7 +2383,7 @@
       </c>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>381</v>
       </c>
@@ -2406,8 +2405,12 @@
       <c r="I33" s="1" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33">
+        <f>SUM(F6:F371)</f>
+        <v>30405</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>382</v>
       </c>
@@ -2427,7 +2430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>382</v>
       </c>
@@ -2447,7 +2450,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>382</v>
       </c>
@@ -2467,7 +2470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="s">
         <v>384</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>381</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>381</v>
       </c>
@@ -2527,7 +2530,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>382</v>
       </c>
@@ -2547,7 +2550,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>382</v>
       </c>
@@ -2567,7 +2570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
         <v>383</v>
       </c>
@@ -2587,7 +2590,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
         <v>383</v>
       </c>
@@ -2607,7 +2610,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="s">
         <v>384</v>
       </c>
@@ -2627,7 +2630,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="s">
         <v>384</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>382</v>
       </c>
@@ -2667,7 +2670,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
         <v>383</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
         <v>384</v>
       </c>
@@ -9168,22 +9171,22 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:F371">
+  <sortState ref="A6:F371">
     <sortCondition ref="F6:F371"/>
   </sortState>
   <mergeCells count="12">
+    <mergeCell ref="I20:I22"/>
+    <mergeCell ref="J20:J22"/>
+    <mergeCell ref="M20:M22"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="J23:J25"/>
+    <mergeCell ref="M23:M25"/>
     <mergeCell ref="I26:I28"/>
     <mergeCell ref="J26:J28"/>
     <mergeCell ref="M26:M28"/>
     <mergeCell ref="I29:I31"/>
     <mergeCell ref="J29:J31"/>
     <mergeCell ref="M29:M31"/>
-    <mergeCell ref="I20:I22"/>
-    <mergeCell ref="J20:J22"/>
-    <mergeCell ref="M20:M22"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="J23:J25"/>
-    <mergeCell ref="M23:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9191,7 +9194,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C42C7E8-F04A-4050-BF49-2AED0AD90EFA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M371"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
